--- a/prep_and_checklists/Pattern  /PREPLIST_Pattern  _07-10-2025_0.xlsx
+++ b/prep_and_checklists/Pattern  /PREPLIST_Pattern  _07-10-2025_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Pattern  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6309B814-F3A5-5941-8A4D-9FE0B2DC0142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CEE30B-3390-684C-8B99-0E90A1BA26B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -769,9 +769,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
@@ -1164,7 +1167,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="77" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1172,9 +1175,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
@@ -1370,5 +1378,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>